--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.5976331360946746</v>
       </c>
       <c r="D2">
-        <v>0.1048689138576779</v>
+        <v>0.9456928838951311</v>
       </c>
       <c r="E2">
-        <v>0.1812297734627832</v>
+        <v>0.7324147933284989</v>
       </c>
       <c r="F2">
-        <v>0.1261261261261261</v>
+        <v>0.8470311975847031</v>
       </c>
       <c r="G2">
-        <v>0.1083817180288819</v>
+        <v>0.9249735822472702</v>
       </c>
       <c r="H2">
-        <v>0.5262172284644195</v>
+        <v>0.7804955883796939</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>505</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="K2">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="L2">
-        <v>478</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5142276422764228</v>
+        <v>0.8699551569506726</v>
       </c>
       <c r="C2">
-        <v>0.947565543071161</v>
+        <v>0.3632958801498127</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
+        <v>0.512549537648613</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6666666666666666</v>
+        <v>0.5976331360946746</v>
       </c>
       <c r="C3">
-        <v>0.1048689138576779</v>
+        <v>0.9456928838951311</v>
       </c>
       <c r="D3">
-        <v>0.1812297734627832</v>
+        <v>0.7324147933284989</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="C4">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="D4">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="E4">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5904471544715447</v>
+        <v>0.7337941465226736</v>
       </c>
       <c r="C5">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="D5">
-        <v>0.4239482200647249</v>
+        <v>0.6224821654885559</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5904471544715447</v>
+        <v>0.7337941465226737</v>
       </c>
       <c r="C6">
-        <v>0.5262172284644194</v>
+        <v>0.6544943820224719</v>
       </c>
       <c r="D6">
-        <v>0.4239482200647249</v>
+        <v>0.6224821654885559</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>478</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
